--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nid1-Col13a1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nid1-Col13a1.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>85.70480866666666</v>
+        <v>92.39013433333332</v>
       </c>
       <c r="H2">
-        <v>257.114426</v>
+        <v>277.170403</v>
       </c>
       <c r="I2">
-        <v>0.2432597358378337</v>
+        <v>0.2557671247968706</v>
       </c>
       <c r="J2">
-        <v>0.2432597358378336</v>
+        <v>0.2557671247968705</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.335983</v>
+        <v>0.4910443333333334</v>
       </c>
       <c r="N2">
-        <v>1.007949</v>
+        <v>1.473133</v>
       </c>
       <c r="O2">
-        <v>0.4945457382278176</v>
+        <v>0.7844104380534107</v>
       </c>
       <c r="P2">
-        <v>0.4945457382278176</v>
+        <v>0.7844104380534107</v>
       </c>
       <c r="Q2">
-        <v>28.79535873025267</v>
+        <v>45.36765192028877</v>
       </c>
       <c r="R2">
-        <v>259.158228572274</v>
+        <v>408.308867282599</v>
       </c>
       <c r="S2">
-        <v>0.1203030656410254</v>
+        <v>0.2006264024015746</v>
       </c>
       <c r="T2">
-        <v>0.1203030656410253</v>
+        <v>0.2006264024015745</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>85.70480866666666</v>
+        <v>92.39013433333332</v>
       </c>
       <c r="H3">
-        <v>257.114426</v>
+        <v>277.170403</v>
       </c>
       <c r="I3">
-        <v>0.2432597358378337</v>
+        <v>0.2557671247968706</v>
       </c>
       <c r="J3">
-        <v>0.2432597358378336</v>
+        <v>0.2557671247968705</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.343394</v>
+        <v>0.13496</v>
       </c>
       <c r="N3">
-        <v>1.030182</v>
+        <v>0.40488</v>
       </c>
       <c r="O3">
-        <v>0.5054542617721824</v>
+        <v>0.2155895619465893</v>
       </c>
       <c r="P3">
-        <v>0.5054542617721824</v>
+        <v>0.2155895619465893</v>
       </c>
       <c r="Q3">
-        <v>29.43051706728133</v>
+        <v>12.46897252962667</v>
       </c>
       <c r="R3">
-        <v>264.874653605532</v>
+        <v>112.22075276664</v>
       </c>
       <c r="S3">
-        <v>0.1229566701968083</v>
+        <v>0.05514072239529596</v>
       </c>
       <c r="T3">
-        <v>0.1229566701968083</v>
+        <v>0.05514072239529594</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,40 +670,40 @@
         <v>764.743774</v>
       </c>
       <c r="I4">
-        <v>0.7235353198224201</v>
+        <v>0.7056897640051698</v>
       </c>
       <c r="J4">
-        <v>0.7235353198224201</v>
+        <v>0.7056897640051695</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.335983</v>
+        <v>0.4910443333333334</v>
       </c>
       <c r="N4">
-        <v>1.007949</v>
+        <v>1.473133</v>
       </c>
       <c r="O4">
-        <v>0.4945457382278176</v>
+        <v>0.7844104380534107</v>
       </c>
       <c r="P4">
-        <v>0.4945457382278176</v>
+        <v>0.7844104380534107</v>
       </c>
       <c r="Q4">
-        <v>85.64696913994733</v>
+        <v>125.1743655582158</v>
       </c>
       <c r="R4">
-        <v>770.822722259526</v>
+        <v>1126.569290023942</v>
       </c>
       <c r="S4">
-        <v>0.3578213088754789</v>
+        <v>0.5535504169131032</v>
       </c>
       <c r="T4">
-        <v>0.3578213088754789</v>
+        <v>0.553550416913103</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,40 +732,40 @@
         <v>764.743774</v>
       </c>
       <c r="I5">
-        <v>0.7235353198224201</v>
+        <v>0.7056897640051698</v>
       </c>
       <c r="J5">
-        <v>0.7235353198224201</v>
+        <v>0.7056897640051695</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.343394</v>
+        <v>0.13496</v>
       </c>
       <c r="N5">
-        <v>1.030182</v>
+        <v>0.40488</v>
       </c>
       <c r="O5">
-        <v>0.5054542617721824</v>
+        <v>0.2155895619465893</v>
       </c>
       <c r="P5">
-        <v>0.5054542617721824</v>
+        <v>0.2155895619465893</v>
       </c>
       <c r="Q5">
-        <v>87.53614117631867</v>
+        <v>34.40327324634666</v>
       </c>
       <c r="R5">
-        <v>787.825270586868</v>
+        <v>309.62945921712</v>
       </c>
       <c r="S5">
-        <v>0.3657140109469413</v>
+        <v>0.1521393470920665</v>
       </c>
       <c r="T5">
-        <v>0.3657140109469413</v>
+        <v>0.1521393470920665</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.01628533333333334</v>
+        <v>0.3441203333333334</v>
       </c>
       <c r="H6">
-        <v>0.048856</v>
+        <v>1.032361</v>
       </c>
       <c r="I6">
-        <v>4.622337936842643E-05</v>
+        <v>0.0009526414143230948</v>
       </c>
       <c r="J6">
-        <v>4.622337936842642E-05</v>
+        <v>0.0009526414143230943</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.335983</v>
+        <v>0.4910443333333334</v>
       </c>
       <c r="N6">
-        <v>1.007949</v>
+        <v>1.473133</v>
       </c>
       <c r="O6">
-        <v>0.4945457382278176</v>
+        <v>0.7844104380534107</v>
       </c>
       <c r="P6">
-        <v>0.4945457382278176</v>
+        <v>0.7844104380534107</v>
       </c>
       <c r="Q6">
-        <v>0.005471595149333334</v>
+        <v>0.1689783396681111</v>
       </c>
       <c r="R6">
-        <v>0.04924435634400001</v>
+        <v>1.520805057013</v>
       </c>
       <c r="S6">
-        <v>2.285957527314292E-05</v>
+        <v>0.0007472618691169995</v>
       </c>
       <c r="T6">
-        <v>2.285957527314292E-05</v>
+        <v>0.0007472618691169991</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.01628533333333334</v>
+        <v>0.3441203333333334</v>
       </c>
       <c r="H7">
-        <v>0.048856</v>
+        <v>1.032361</v>
       </c>
       <c r="I7">
-        <v>4.622337936842643E-05</v>
+        <v>0.0009526414143230948</v>
       </c>
       <c r="J7">
-        <v>4.622337936842642E-05</v>
+        <v>0.0009526414143230943</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.343394</v>
+        <v>0.13496</v>
       </c>
       <c r="N7">
-        <v>1.030182</v>
+        <v>0.40488</v>
       </c>
       <c r="O7">
-        <v>0.5054542617721824</v>
+        <v>0.2155895619465893</v>
       </c>
       <c r="P7">
-        <v>0.5054542617721824</v>
+        <v>0.2155895619465893</v>
       </c>
       <c r="Q7">
-        <v>0.005592285754666667</v>
+        <v>0.04644248018666667</v>
       </c>
       <c r="R7">
-        <v>0.050330571792</v>
+        <v>0.41798232168</v>
       </c>
       <c r="S7">
-        <v>2.336380409528351E-05</v>
+        <v>0.0002053795452060952</v>
       </c>
       <c r="T7">
-        <v>2.336380409528351E-05</v>
+        <v>0.0002053795452060952</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.56825933333333</v>
+        <v>13.48925766666667</v>
       </c>
       <c r="H8">
-        <v>34.704778</v>
+        <v>40.467773</v>
       </c>
       <c r="I8">
-        <v>0.03283470033140288</v>
+        <v>0.0373428253345738</v>
       </c>
       <c r="J8">
-        <v>0.03283470033140288</v>
+        <v>0.03734282533457379</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.335983</v>
+        <v>0.4910443333333334</v>
       </c>
       <c r="N8">
-        <v>1.007949</v>
+        <v>1.473133</v>
       </c>
       <c r="O8">
-        <v>0.4945457382278176</v>
+        <v>0.7844104380534107</v>
       </c>
       <c r="P8">
-        <v>0.4945457382278176</v>
+        <v>0.7844104380534107</v>
       </c>
       <c r="Q8">
-        <v>3.886738475591333</v>
+        <v>6.62382353808989</v>
       </c>
       <c r="R8">
-        <v>34.980646280322</v>
+        <v>59.61441184280901</v>
       </c>
       <c r="S8">
-        <v>0.01623826111488281</v>
+        <v>0.02929210197884504</v>
       </c>
       <c r="T8">
-        <v>0.0162382611148828</v>
+        <v>0.02929210197884503</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.56825933333333</v>
+        <v>13.48925766666667</v>
       </c>
       <c r="H9">
-        <v>34.704778</v>
+        <v>40.467773</v>
       </c>
       <c r="I9">
-        <v>0.03283470033140288</v>
+        <v>0.0373428253345738</v>
       </c>
       <c r="J9">
-        <v>0.03283470033140288</v>
+        <v>0.03734282533457379</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.343394</v>
+        <v>0.13496</v>
       </c>
       <c r="N9">
-        <v>1.030182</v>
+        <v>0.40488</v>
       </c>
       <c r="O9">
-        <v>0.5054542617721824</v>
+        <v>0.2155895619465893</v>
       </c>
       <c r="P9">
-        <v>0.5054542617721824</v>
+        <v>0.2155895619465893</v>
       </c>
       <c r="Q9">
-        <v>3.972470845510666</v>
+        <v>1.820510214693333</v>
       </c>
       <c r="R9">
-        <v>35.75223760959599</v>
+        <v>16.38459193224</v>
       </c>
       <c r="S9">
-        <v>0.01659643921652008</v>
+        <v>0.008050723355728762</v>
       </c>
       <c r="T9">
-        <v>0.01659643921652008</v>
+        <v>0.00805072335572876</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.1141583333333333</v>
+        <v>0.08945599999999999</v>
       </c>
       <c r="H10">
-        <v>0.342475</v>
+        <v>0.268368</v>
       </c>
       <c r="I10">
-        <v>0.0003240206289749844</v>
+        <v>0.0002476444490629346</v>
       </c>
       <c r="J10">
-        <v>0.0003240206289749844</v>
+        <v>0.0002476444490629346</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.335983</v>
+        <v>0.4910443333333334</v>
       </c>
       <c r="N10">
-        <v>1.007949</v>
+        <v>1.473133</v>
       </c>
       <c r="O10">
-        <v>0.4945457382278176</v>
+        <v>0.7844104380534107</v>
       </c>
       <c r="P10">
-        <v>0.4945457382278176</v>
+        <v>0.7844104380534107</v>
       </c>
       <c r="Q10">
-        <v>0.03835525930833333</v>
+        <v>0.04392686188266667</v>
       </c>
       <c r="R10">
-        <v>0.3451973337749999</v>
+        <v>0.395341756944</v>
       </c>
       <c r="S10">
-        <v>0.0001602430211574754</v>
+        <v>0.0001942548907709521</v>
       </c>
       <c r="T10">
-        <v>0.0001602430211574754</v>
+        <v>0.000194254890770952</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.1141583333333333</v>
+        <v>0.08945599999999999</v>
       </c>
       <c r="H11">
-        <v>0.342475</v>
+        <v>0.268368</v>
       </c>
       <c r="I11">
-        <v>0.0003240206289749844</v>
+        <v>0.0002476444490629346</v>
       </c>
       <c r="J11">
-        <v>0.0003240206289749844</v>
+        <v>0.0002476444490629346</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.343394</v>
+        <v>0.13496</v>
       </c>
       <c r="N11">
-        <v>1.030182</v>
+        <v>0.40488</v>
       </c>
       <c r="O11">
-        <v>0.5054542617721824</v>
+        <v>0.2155895619465893</v>
       </c>
       <c r="P11">
-        <v>0.5054542617721824</v>
+        <v>0.2155895619465893</v>
       </c>
       <c r="Q11">
-        <v>0.03920128671666666</v>
+        <v>0.01207298176</v>
       </c>
       <c r="R11">
-        <v>0.3528115804499999</v>
+        <v>0.10865683584</v>
       </c>
       <c r="S11">
-        <v>0.000163777607817509</v>
+        <v>5.338955829198251E-05</v>
       </c>
       <c r="T11">
-        <v>0.0001637776078175089</v>
+        <v>5.338955829198251E-05</v>
       </c>
     </row>
   </sheetData>
